--- a/data/Orcus - Feats.xlsx
+++ b/data/Orcus - Feats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A270A-5717-4BDB-8480-A5394D4A8DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE82013-E8CD-4A73-834A-810FD01332DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="242">
   <si>
     <t># Shard Feats</t>
   </si>
@@ -724,6 +724,45 @@
   </si>
   <si>
     <t>You can *disarm, trip* or *sunder* using a ranged weapon.</t>
+  </si>
+  <si>
+    <t>Practiced Arts</t>
+  </si>
+  <si>
+    <t>You learn one art of each level, up to your current level, without spending the time or money normally required. Each time you increase in level, you learn one additional art of your current level or lower.</t>
+  </si>
+  <si>
+    <t>Varied Arts</t>
+  </si>
+  <si>
+    <t>You can learn arts that belong to a skill you are not trained in.</t>
+  </si>
+  <si>
+    <t>Kit Study</t>
+  </si>
+  <si>
+    <t>Level 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You gain the Level 1 feature of a kit of your choice. </t>
+  </si>
+  <si>
+    <t>Kit Study (Expert)</t>
+  </si>
+  <si>
+    <t>Level 15, Kit Study</t>
+  </si>
+  <si>
+    <t>You gain the Level 5 feature of the kit you chose for Kit Study.</t>
+  </si>
+  <si>
+    <t>Kit Study (Advanced)</t>
+  </si>
+  <si>
+    <t>Level 20, Kit Study, Kit Study (Expert)</t>
+  </si>
+  <si>
+    <t>You gain the Level 10 feature of the kit you chose for Kit Study.</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1094,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2126,6 +2168,55 @@
         <v>228</v>
       </c>
     </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G45">
     <sortCondition ref="B4:B45"/>
